--- a/docs/weekly_report/week_01/Meeting_Schedule.xlsx
+++ b/docs/weekly_report/week_01/Meeting_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yks\Desktop\github\CapstoneDesign2022_1_DEML\docs\Conference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62206E-6170-4F25-8059-B3F051F881E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E2E165-87C8-4C58-A853-6AFE8D88949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11330" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="-7056" yWindow="3012" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,43 +218,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,17 +574,17 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.58203125" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="2.25" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" customWidth="1"/>
+    <col min="6" max="6" width="40.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -600,68 +600,68 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="11">
+      <c r="E2" s="9"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
         <v>4</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17">
         <v>5</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44624</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>0.8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4">
@@ -709,405 +709,405 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="46.5" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" ht="38" customHeight="1">
-      <c r="A5" s="6">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="37.950000000000003" customHeight="1">
+      <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" ht="31" customHeight="1">
-      <c r="A6" s="6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="31.05" customHeight="1">
+      <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" ht="34" customHeight="1">
-      <c r="A7" s="6">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="34.049999999999997" customHeight="1">
+      <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44659</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44666</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44673</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44680</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44687</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44694</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44701</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44708</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44715</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44722</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44729</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44736</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44743</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
     </row>
     <row r="23" spans="1:19">
       <c r="O23" s="1"/>

--- a/docs/weekly_report/week_01/Meeting_Schedule.xlsx
+++ b/docs/weekly_report/week_01/Meeting_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E2E165-87C8-4C58-A853-6AFE8D88949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9435C6-2DD4-4DCB-AD88-2C6FCCFF1799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7056" yWindow="3012" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="2184" yWindow="6768" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,66 @@
   </si>
   <si>
     <t>내용/주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 시스템 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDPC 채널 코딩의 구현을 위한 선형코드의 첫 단계 (7,4) Hamming code 분석 및 스터디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWGN채널 환경에서의 7,4 haming code python 및 pytorch를 사용해 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7,4 hamming code 구현 및 LDPC의 핵심 알고리즘인 Sum Product Algorithm분석 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,4 hamming code의 환경으로 Sum Product Algorithm을 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,4 hamming code의 환경으로 Sum Product Algorithm을 구현 + LLR을 이용하여 연산의 효율성을 높임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의 MATLAB기반 코드를 분석 및 오픈소스 등록을 위한 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDPC 시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사로 인한 스케쥴 관리 및 현대 통신의 역사 스터디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5G의 기초가 되는 LDPC 분석 및 이해 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 소스 등록을 위한 기존의 MAT형식의 파일 py파일로 형변환 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sparse Matirx를 사용한 LDPC 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 시스템에 DNN접목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 서울에서 열리는 IEEE ICC학회 참석 현재 5G기술의 현황 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN 및 Unet을 LDPC에 적용하여 5G NR에 접목 + Github 관리 + 기말 보고서 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +206,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,13 +280,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,13 +337,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +702,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -582,7 +710,7 @@
     <col min="1" max="1" width="15.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.59765625" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
     <col min="5" max="5" width="2.19921875" customWidth="1"/>
     <col min="6" max="6" width="40.296875" customWidth="1"/>
   </cols>
@@ -601,24 +729,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
@@ -626,42 +754,42 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28">
         <v>4</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
         <v>5</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>44624</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <v>0.8</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4">
@@ -712,17 +840,23 @@
       <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -737,9 +871,13 @@
       <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
         <v>12</v>
@@ -748,9 +886,9 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -762,9 +900,13 @@
       <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="11" t="s">
         <v>5</v>
@@ -775,11 +917,11 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
@@ -787,9 +929,13 @@
       <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
@@ -802,19 +948,23 @@
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" ht="34.799999999999997">
       <c r="A8" s="5">
         <v>44659</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7" t="s">
         <v>7</v>
@@ -828,18 +978,22 @@
       <c r="M8" s="8"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>44666</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -860,9 +1014,13 @@
       <c r="A10" s="5">
         <v>44673</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -883,9 +1041,15 @@
       <c r="A11" s="5">
         <v>44680</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -906,9 +1070,13 @@
       <c r="A12" s="5">
         <v>44687</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -929,9 +1097,13 @@
       <c r="A13" s="5">
         <v>44694</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -952,9 +1124,13 @@
       <c r="A14" s="5">
         <v>44701</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -975,9 +1151,15 @@
       <c r="A15" s="5">
         <v>44708</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -998,9 +1180,11 @@
       <c r="A16" s="5">
         <v>44715</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1018,9 +1202,7 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="5">
-        <v>44722</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1041,9 +1223,7 @@
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="5">
-        <v>44729</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1064,9 +1244,7 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="5">
-        <v>44736</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1087,9 +1265,7 @@
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="5">
-        <v>44743</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1113,7 +1289,10 @@
       <c r="O23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:O2"/>
